--- a/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mpimp-golm\USER\HOMES\Wijesingha1055\GitHub\Swate-templates\templates\community\MPIMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/MPIMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422CAC4-C010-D344-AC0D-3BC348098774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" activeTab="1"/>
+    <workbookView xWindow="-23980" yWindow="-19840" windowWidth="27860" windowHeight="13520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass spectrometry" sheetId="4" r:id="rId1"/>
@@ -20,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E6D21102-1F00-499F-AD17-FA84E4498E94}</author>
     <author>tc={BE4C2121-E50E-46E2-9BDB-D31C575D8B3B}</author>
@@ -49,7 +39,7 @@
     <author>tc={33943732-BBF3-453E-8139-D329B9D75E0B}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="1" shapeId="0">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="2" shapeId="0">
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="3" shapeId="0">
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="4" shapeId="0">
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="5" shapeId="0">
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="6" shapeId="0">
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="7" shapeId="0">
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="8" shapeId="0">
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -358,9 +348,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -464,12 +451,15 @@
   </si>
   <si>
     <t>annotationTableNervousCheetah8</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -713,27 +703,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="annotationTableNervousCheetah8" displayName="annotationTableNervousCheetah8" ref="A1:R3" totalsRowShown="0">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTableNervousCheetah8" displayName="annotationTableNervousCheetah8" ref="A1:R3" totalsRowShown="0">
+  <autoFilter ref="A1:R3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Source Name"/>
-    <tableColumn id="15" name="Protocol Type" dataDxfId="16"/>
-    <tableColumn id="16" name="Term Source REF (DPBO:1000161)" dataDxfId="15"/>
-    <tableColumn id="17" name="Term Accession Number (DPBO:1000161)" dataDxfId="14"/>
-    <tableColumn id="18" name="Protocol REF" dataDxfId="13"/>
-    <tableColumn id="3" name="Parameter [scan polarity]" dataDxfId="12"/>
-    <tableColumn id="4" name="Term Source REF (MS:1000465)" dataDxfId="11"/>
-    <tableColumn id="5" name="Term Accession Number (MS:1000465)" dataDxfId="10"/>
-    <tableColumn id="19" name="Component [data processing software]" dataDxfId="9"/>
-    <tableColumn id="20" name="Term Source REF (MS:1001457) " dataDxfId="8"/>
-    <tableColumn id="21" name="Term Accession Number (MS:1001457) " dataDxfId="7"/>
-    <tableColumn id="9" name="Parameter [Quantification method]" dataDxfId="6"/>
-    <tableColumn id="10" name="Term Source REF (PRIDE:0000307)" dataDxfId="5"/>
-    <tableColumn id="11" name="Term Accession Number (PRIDE:0000307)" dataDxfId="4"/>
-    <tableColumn id="12" name="Parameter [area normalization]" dataDxfId="3"/>
-    <tableColumn id="13" name="Term Source REF (MS:1001999)" dataDxfId="2"/>
-    <tableColumn id="14" name="Term Accession Number (MS:1001999)" dataDxfId="1"/>
-    <tableColumn id="2" name="Raw Data File" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Source Name"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Protocol Type" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Source REF (DPBO:1000161)" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Term Accession Number (DPBO:1000161)" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Protocol REF" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parameter [scan polarity]" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Source REF (MS:1000465)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Term Accession Number (MS:1000465)" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Component [data processing software]" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Term Source REF (MS:1001457) " dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Accession Number (MS:1001457) " dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Parameter [Quantification method]" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Source REF (PRIDE:0000307)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Term Accession Number (PRIDE:0000307)" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Parameter [area normalization]" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Source REF (MS:1001999)" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Term Accession Number (MS:1001999)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Raw Data File" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1086,45 +1076,45 @@
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
-      <we:containsCustomFunctions xmlns=""/>
+      <we:containsCustomFunctions/>
     </a:ext>
   </we:extLst>
 </we:webextension>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="35.33203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="31.1640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1296,21 +1286,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1318,7 +1308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
@@ -1326,93 +1316,93 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>19</v>
@@ -1421,93 +1411,93 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="7" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="B27" s="10"/>
     </row>

--- a/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/MPIMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422CAC4-C010-D344-AC0D-3BC348098774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147868F-60CB-AC4D-A322-9235110CC461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23980" yWindow="-19840" windowWidth="27860" windowHeight="13520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23980" yWindow="-19840" windowWidth="27860" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass spectrometry" sheetId="4" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>Source Name</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>1_neg.raw</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C17157</t>
   </si>
   <si>
     <t>Negative</t>
@@ -1086,31 +1083,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
     <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" customWidth="1"/>
     <col min="12" max="12" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="38.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="31.1640625" customWidth="1"/>
+    <col min="14" max="14" width="38.33203125" customWidth="1"/>
     <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
     <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="8.83203125" customWidth="1"/>
     <col min="21" max="21" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,49 +1228,49 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1302,107 +1299,107 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>19</v>
@@ -1413,91 +1410,91 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="10"/>
     </row>

--- a/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/MPIMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147868F-60CB-AC4D-A322-9235110CC461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D5118-76C2-7A4A-A517-7A45FA158A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23980" yWindow="-19840" windowWidth="27860" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>Source Name</t>
   </si>
@@ -304,12 +304,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25247</t>
-  </si>
-  <si>
-    <t>genedata refiner</t>
-  </si>
-  <si>
-    <t>user-specific</t>
   </si>
   <si>
     <t>Relative</t>
@@ -1058,7 +1052,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="610" row="5">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1083,30 +1077,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" customWidth="1"/>
-    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" customWidth="1"/>
-    <col min="12" max="12" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.1640625" customWidth="1"/>
-    <col min="14" max="14" width="38.33203125" customWidth="1"/>
-    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="8.83203125" customWidth="1"/>
     <col min="21" max="21" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1243,34 +1237,34 @@
         <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1299,107 +1293,107 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>19</v>
@@ -1410,91 +1404,91 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="10"/>
     </row>

--- a/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/MPIMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MPIMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D5118-76C2-7A4A-A517-7A45FA158A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F63CC-4D6A-4496-9B57-2887B54D1028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23980" yWindow="-19840" windowWidth="27860" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass spectrometry" sheetId="4" r:id="rId1"/>
@@ -41,157 +41,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=ab29af8f-8622-4c5e-9158-bb6b6e3f2fde</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -199,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
   <si>
     <t>Source Name</t>
   </si>
@@ -445,6 +364,9 @@
   </si>
   <si>
     <t>1.0.1</t>
+  </si>
+  <si>
+    <t>NCIT:C17156</t>
   </si>
 </sst>
 </file>
@@ -620,7 +542,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -721,9 +643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -761,7 +683,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -867,7 +789,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1077,35 +999,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="35.33203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.83203125" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.77734375" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1280,18 +1202,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1299,7 +1221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1307,7 +1229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1315,7 +1237,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1323,7 +1245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1331,7 +1253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -1339,37 +1261,37 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -1380,35 +1302,33 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -1416,7 +1336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -1424,13 +1344,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1438,19 +1358,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -1458,7 +1378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
@@ -1466,7 +1386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
@@ -1474,19 +1394,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>

--- a/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Mass_Spectrometry.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MPIMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F63CC-4D6A-4496-9B57-2887B54D1028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24042C27-E94F-4575-A7A2-0B000B6B1E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass spectrometry" sheetId="4" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="5" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
